--- a/Jornades_LaLiga_25-26.xlsx
+++ b/Jornades_LaLiga_25-26.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ottocapo/Desktop/Treball-de-Recerca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3382331-6C25-CF45-B375-D0C9D9161C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDACE2B-C820-404C-BDB7-59CCA87E8E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="21640" windowHeight="13540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>Athletic Club</t>
-  </si>
-  <si>
-    <t>Elche CF</t>
   </si>
   <si>
     <t>Real Oviedo</t>
@@ -82,13 +79,16 @@
     <t>Villarreal</t>
   </si>
   <si>
-    <t xml:space="preserve">Levante </t>
-  </si>
-  <si>
     <t>Home_Team</t>
   </si>
   <si>
     <t>Away_Team</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Elche</t>
   </si>
 </sst>
 </file>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -473,10 +473,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -498,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,10 +528,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -539,10 +539,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -550,10 +550,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -561,10 +561,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -572,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -594,10 +594,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -616,10 +616,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -627,10 +627,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -638,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -649,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -660,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -671,10 +671,10 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -685,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -693,10 +693,10 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -726,10 +726,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -737,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -759,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -781,10 +781,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -792,10 +792,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -803,10 +803,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -814,10 +814,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -825,10 +825,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -836,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,10 +869,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -880,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -891,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,10 +902,10 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -913,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -935,10 +935,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -946,10 +946,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -968,10 +968,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -979,10 +979,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -990,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1001,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1012,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,10 +1023,10 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1034,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1056,10 +1056,10 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1067,10 +1067,10 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1089,10 +1089,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1111,10 +1111,10 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1122,10 +1122,10 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1144,10 +1144,10 @@
         <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1155,10 +1155,10 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1177,10 +1177,10 @@
         <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1188,10 +1188,10 @@
         <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1199,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -1210,10 +1210,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1221,10 +1221,10 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1232,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1243,10 +1243,10 @@
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1254,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1276,10 +1276,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1298,10 +1298,10 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1309,10 +1309,10 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1320,10 +1320,10 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1353,10 +1353,10 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1364,10 +1364,10 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1375,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -1386,10 +1386,10 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -1408,10 +1408,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -1430,10 +1430,10 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -1441,10 +1441,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1452,10 +1452,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -1463,10 +1463,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,10 +1474,10 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -1485,10 +1485,10 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -1496,10 +1496,10 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1507,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -1518,10 +1518,10 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -1540,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -1551,10 +1551,10 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1562,10 +1562,10 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -1595,10 +1595,10 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -1606,10 +1606,10 @@
         <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -1628,10 +1628,10 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,10 +1639,10 @@
         <v>11</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,10 +1650,10 @@
         <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -1661,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1672,10 +1672,10 @@
         <v>11</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,10 +1683,10 @@
         <v>11</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -1694,10 +1694,10 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -1705,10 +1705,10 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,10 +1716,10 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,10 +1727,10 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -1738,10 +1738,10 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -1749,10 +1749,10 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -1760,10 +1760,10 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -1771,10 +1771,10 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,10 +1782,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,10 +1804,10 @@
         <v>13</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,10 +1815,10 @@
         <v>13</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -1826,10 +1826,10 @@
         <v>13</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>13</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
@@ -1848,10 +1848,10 @@
         <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -1859,10 +1859,10 @@
         <v>13</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,10 +1881,10 @@
         <v>13</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,10 +1892,10 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,10 +1903,10 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -1925,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
@@ -1936,10 +1936,10 @@
         <v>14</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -1947,10 +1947,10 @@
         <v>14</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,10 +1958,10 @@
         <v>14</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,10 +1969,10 @@
         <v>14</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,10 +1980,10 @@
         <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,10 +1991,10 @@
         <v>14</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -2002,10 +2002,10 @@
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,10 +2013,10 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,10 +2024,10 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,10 +2035,10 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -2046,10 +2046,10 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,10 +2057,10 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,10 +2068,10 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -2079,10 +2079,10 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2101,10 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2123,10 +2123,10 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -2134,10 +2134,10 @@
         <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,10 +2145,10 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -2156,10 +2156,10 @@
         <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -2167,10 +2167,10 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2178,10 +2178,10 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -2189,10 +2189,10 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -2200,10 +2200,10 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -2211,10 +2211,10 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -2222,10 +2222,10 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2233,7 +2233,7 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
@@ -2244,10 +2244,10 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -2255,10 +2255,10 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -2266,10 +2266,10 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -2277,10 +2277,10 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2288,10 +2288,10 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -2299,10 +2299,10 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,10 +2310,10 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2343,10 +2343,10 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -2354,10 +2354,10 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -2365,10 +2365,10 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -2376,10 +2376,10 @@
         <v>18</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,10 +2387,10 @@
         <v>18</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -2409,10 +2409,10 @@
         <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,10 +2420,10 @@
         <v>18</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,10 +2431,10 @@
         <v>18</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,10 +2442,10 @@
         <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -2453,7 +2453,7 @@
         <v>18</v>
       </c>
       <c r="B181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -2464,10 +2464,10 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -2475,10 +2475,10 @@
         <v>19</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -2486,10 +2486,10 @@
         <v>19</v>
       </c>
       <c r="B184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,10 +2508,10 @@
         <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2519,10 +2519,10 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C187" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2530,10 +2530,10 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
         <v>19</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -2563,10 +2563,10 @@
         <v>19</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2574,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -2585,10 +2585,10 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
@@ -2607,10 +2607,10 @@
         <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C196" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2629,10 +2629,10 @@
         <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,10 +2640,10 @@
         <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,10 +2651,10 @@
         <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,10 +2662,10 @@
         <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,10 +2673,10 @@
         <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2684,10 +2684,10 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,10 +2695,10 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>21</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -2728,10 +2728,10 @@
         <v>21</v>
       </c>
       <c r="B206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2739,7 +2739,7 @@
         <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
@@ -2750,10 +2750,10 @@
         <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C208" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -2761,10 +2761,10 @@
         <v>21</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -2772,10 +2772,10 @@
         <v>21</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -2783,10 +2783,10 @@
         <v>21</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -2794,10 +2794,10 @@
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2805,10 +2805,10 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -2816,10 +2816,10 @@
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -2827,10 +2827,10 @@
         <v>22</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -2838,10 +2838,10 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -2849,10 +2849,10 @@
         <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -2860,10 +2860,10 @@
         <v>22</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C218" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2871,10 +2871,10 @@
         <v>22</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -2893,10 +2893,10 @@
         <v>22</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -2904,10 +2904,10 @@
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -2915,10 +2915,10 @@
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -2926,10 +2926,10 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -2937,10 +2937,10 @@
         <v>23</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,10 +2948,10 @@
         <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,10 +2970,10 @@
         <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C228" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -2992,10 +2992,10 @@
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -3003,10 +3003,10 @@
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -3014,10 +3014,10 @@
         <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -3025,10 +3025,10 @@
         <v>24</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -3036,10 +3036,10 @@
         <v>24</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -3047,10 +3047,10 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -3058,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -3069,10 +3069,10 @@
         <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -3080,10 +3080,10 @@
         <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,10 +3091,10 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,10 +3102,10 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -3113,10 +3113,10 @@
         <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -3124,10 +3124,10 @@
         <v>25</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -3135,10 +3135,10 @@
         <v>25</v>
       </c>
       <c r="B243" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -3146,10 +3146,10 @@
         <v>25</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -3157,10 +3157,10 @@
         <v>25</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3168,10 +3168,10 @@
         <v>25</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -3179,10 +3179,10 @@
         <v>25</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -3190,10 +3190,10 @@
         <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -3212,10 +3212,10 @@
         <v>25</v>
       </c>
       <c r="B250" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,10 +3223,10 @@
         <v>25</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,10 +3234,10 @@
         <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -3245,10 +3245,10 @@
         <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -3256,10 +3256,10 @@
         <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -3267,10 +3267,10 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -3278,7 +3278,7 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
@@ -3289,10 +3289,10 @@
         <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -3300,10 +3300,10 @@
         <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -3311,10 +3311,10 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C259" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -3322,10 +3322,10 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C260" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -3333,10 +3333,10 @@
         <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -3344,10 +3344,10 @@
         <v>27</v>
       </c>
       <c r="B262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C262" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,10 +3355,10 @@
         <v>27</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,10 +3366,10 @@
         <v>27</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -3377,10 +3377,10 @@
         <v>27</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -3388,10 +3388,10 @@
         <v>27</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -3410,10 +3410,10 @@
         <v>27</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -3421,10 +3421,10 @@
         <v>27</v>
       </c>
       <c r="B269" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -3432,10 +3432,10 @@
         <v>27</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -3443,10 +3443,10 @@
         <v>27</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -3454,10 +3454,10 @@
         <v>28</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -3465,10 +3465,10 @@
         <v>28</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C273" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -3476,10 +3476,10 @@
         <v>28</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -3487,10 +3487,10 @@
         <v>28</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C275" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -3498,7 +3498,7 @@
         <v>28</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
@@ -3509,10 +3509,10 @@
         <v>28</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -3520,10 +3520,10 @@
         <v>28</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -3531,10 +3531,10 @@
         <v>28</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -3542,10 +3542,10 @@
         <v>28</v>
       </c>
       <c r="B280" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -3553,10 +3553,10 @@
         <v>28</v>
       </c>
       <c r="B281" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C281" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,10 +3564,10 @@
         <v>29</v>
       </c>
       <c r="B282" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C282" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -3575,10 +3575,10 @@
         <v>29</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -3586,10 +3586,10 @@
         <v>29</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -3597,10 +3597,10 @@
         <v>29</v>
       </c>
       <c r="B285" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C285" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -3608,10 +3608,10 @@
         <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C286" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -3619,10 +3619,10 @@
         <v>29</v>
       </c>
       <c r="B287" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -3630,10 +3630,10 @@
         <v>29</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -3641,10 +3641,10 @@
         <v>29</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>1</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -3663,10 +3663,10 @@
         <v>29</v>
       </c>
       <c r="B291" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -3674,10 +3674,10 @@
         <v>30</v>
       </c>
       <c r="B292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C292" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -3685,10 +3685,10 @@
         <v>30</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C293" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -3696,10 +3696,10 @@
         <v>30</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -3707,7 +3707,7 @@
         <v>30</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
         <v>1</v>
@@ -3718,10 +3718,10 @@
         <v>30</v>
       </c>
       <c r="B296" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -3729,10 +3729,10 @@
         <v>30</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -3740,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -3751,10 +3751,10 @@
         <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -3762,10 +3762,10 @@
         <v>30</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -3773,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -3784,10 +3784,10 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C302" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -3795,10 +3795,10 @@
         <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -3806,10 +3806,10 @@
         <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -3817,10 +3817,10 @@
         <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -3828,10 +3828,10 @@
         <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -3850,10 +3850,10 @@
         <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -3861,10 +3861,10 @@
         <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C309" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -3872,10 +3872,10 @@
         <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -3883,10 +3883,10 @@
         <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -3894,10 +3894,10 @@
         <v>32</v>
       </c>
       <c r="B312" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -3905,10 +3905,10 @@
         <v>32</v>
       </c>
       <c r="B313" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -3916,10 +3916,10 @@
         <v>32</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -3927,10 +3927,10 @@
         <v>32</v>
       </c>
       <c r="B315" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C315" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -3938,7 +3938,7 @@
         <v>32</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C316" t="s">
         <v>1</v>
@@ -3949,10 +3949,10 @@
         <v>32</v>
       </c>
       <c r="B317" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -3960,10 +3960,10 @@
         <v>32</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -3971,10 +3971,10 @@
         <v>32</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C319" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -3982,10 +3982,10 @@
         <v>32</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -3993,10 +3993,10 @@
         <v>32</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C321" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -4004,10 +4004,10 @@
         <v>33</v>
       </c>
       <c r="B322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -4015,10 +4015,10 @@
         <v>33</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -4026,10 +4026,10 @@
         <v>33</v>
       </c>
       <c r="B324" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -4037,10 +4037,10 @@
         <v>33</v>
       </c>
       <c r="B325" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -4048,10 +4048,10 @@
         <v>33</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -4059,10 +4059,10 @@
         <v>33</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -4070,10 +4070,10 @@
         <v>33</v>
       </c>
       <c r="B328" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -4081,10 +4081,10 @@
         <v>33</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C329" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -4103,10 +4103,10 @@
         <v>33</v>
       </c>
       <c r="B331" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -4114,10 +4114,10 @@
         <v>34</v>
       </c>
       <c r="B332" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -4125,10 +4125,10 @@
         <v>34</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -4136,10 +4136,10 @@
         <v>34</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -4147,10 +4147,10 @@
         <v>34</v>
       </c>
       <c r="B335" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C335" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -4158,10 +4158,10 @@
         <v>34</v>
       </c>
       <c r="B336" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -4169,10 +4169,10 @@
         <v>34</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C337" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -4180,10 +4180,10 @@
         <v>34</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -4191,10 +4191,10 @@
         <v>34</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -4202,7 +4202,7 @@
         <v>34</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
@@ -4213,10 +4213,10 @@
         <v>34</v>
       </c>
       <c r="B341" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -4224,10 +4224,10 @@
         <v>35</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C342" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -4235,10 +4235,10 @@
         <v>35</v>
       </c>
       <c r="B343" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C343" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -4246,10 +4246,10 @@
         <v>35</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C344" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,10 +4257,10 @@
         <v>35</v>
       </c>
       <c r="B345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -4268,10 +4268,10 @@
         <v>35</v>
       </c>
       <c r="B346" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C346" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -4279,10 +4279,10 @@
         <v>35</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -4290,10 +4290,10 @@
         <v>35</v>
       </c>
       <c r="B348" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -4301,10 +4301,10 @@
         <v>35</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -4312,10 +4312,10 @@
         <v>35</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="C351" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -4334,10 +4334,10 @@
         <v>36</v>
       </c>
       <c r="B352" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -4345,10 +4345,10 @@
         <v>36</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C353" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -4356,10 +4356,10 @@
         <v>36</v>
       </c>
       <c r="B354" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>36</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C355" t="s">
         <v>1</v>
@@ -4378,10 +4378,10 @@
         <v>36</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,10 +4389,10 @@
         <v>36</v>
       </c>
       <c r="B357" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,10 +4400,10 @@
         <v>36</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C358" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -4411,10 +4411,10 @@
         <v>36</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -4422,10 +4422,10 @@
         <v>36</v>
       </c>
       <c r="B360" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C360" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -4433,10 +4433,10 @@
         <v>36</v>
       </c>
       <c r="B361" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C361" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,10 +4444,10 @@
         <v>37</v>
       </c>
       <c r="B362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C362" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,10 +4455,10 @@
         <v>37</v>
       </c>
       <c r="B363" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C363" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,10 +4466,10 @@
         <v>37</v>
       </c>
       <c r="B364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -4477,10 +4477,10 @@
         <v>37</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C365" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -4488,10 +4488,10 @@
         <v>37</v>
       </c>
       <c r="B366" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C366" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -4499,10 +4499,10 @@
         <v>37</v>
       </c>
       <c r="B367" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -4510,10 +4510,10 @@
         <v>37</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -4521,10 +4521,10 @@
         <v>37</v>
       </c>
       <c r="B369" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C369" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="C370" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -4543,10 +4543,10 @@
         <v>37</v>
       </c>
       <c r="B371" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,10 +4554,10 @@
         <v>38</v>
       </c>
       <c r="B372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -4565,10 +4565,10 @@
         <v>38</v>
       </c>
       <c r="B373" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C373" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -4576,10 +4576,10 @@
         <v>38</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C374" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -4587,10 +4587,10 @@
         <v>38</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -4598,10 +4598,10 @@
         <v>38</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C376" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -4609,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C377" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -4620,10 +4620,10 @@
         <v>38</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -4631,7 +4631,7 @@
         <v>38</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C379" t="s">
         <v>1</v>
@@ -4642,10 +4642,10 @@
         <v>38</v>
       </c>
       <c r="B380" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -4653,10 +4653,10 @@
         <v>38</v>
       </c>
       <c r="B381" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
